--- a/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-39,47; 16,15</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 44,97</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,43; 20,85</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-19,87%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-50,54; 37,66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 134,73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,1; 45,62</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,23; 17,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,83; 13,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; 11,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,49; 19,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,76; 7,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; 11,21</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,81%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,55; 27,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,57; 20,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,55; 18,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,87; 28,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,13; 11,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,31; 16,81</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,04</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,3; -2,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,02; 11,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; 58,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,13; 42,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,6; 13,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,69; 11,93</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,92%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,74; -3,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,29; 12,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 361,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,2; 149,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,49; 18,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,58; 17,9</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,82; 28,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,13; 23,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; 30,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; 37,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; 21,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 21,62</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,07; 59,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,97; 47,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,2; 59,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,79; 71,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,17; 39,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 38,65</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,25</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 41,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,2; 42,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,54; 37,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,13; 40,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,04; 33,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,12; 32,58</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,27; 103,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,5; 95,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 101,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,85; 108,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; 72,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,57; 69,0</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,32</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,18</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; 29,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,51; 10,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 37,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,09; 22,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 23,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,54; 8,5</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,85%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,79%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,71%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,87; 62,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,2; 23,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,21; 72,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,96; 40,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,67; 43,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,28; 12,47</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,57</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,87</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,54</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,93</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,63; 0,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,56; -16,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,43; -0,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,53; -7,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,44; -5,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,16; -17,5</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,41%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,64%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,0%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,5; 0,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,18; -21,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,1; -1,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,36; -9,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,42; -7,61</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,66; -22,9</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,42</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,74</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,37</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 16,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; 7,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,01; 11,4</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,68; 4,67</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,97; 9,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,83; 1,58</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,44%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,59%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,9%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,94; 24,87</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,59; 11,06</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; 16,81</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,44; 6,72</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,65; 13,82</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,43; 1,59</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,67</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 2,27</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,22; -5,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 7,23</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,43; 2,42</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 2,48</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,38; -4,52</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,75; 2,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,68; -8,05</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 10,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,01; 3,34</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 3,42</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; -6,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,58; 27,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 46,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; 26,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,57; 70,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,85; 140,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,03; 60,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 28,24</t>
+          <t>-21,18; 34,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 30,3</t>
+          <t>-15,02; 32,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 21,04</t>
+          <t>-6,4; 28,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 59,12</t>
+          <t>-25,63; 67,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 59,49</t>
+          <t>-16,64; 63,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 39,52</t>
+          <t>-7,91; 50,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 27,99</t>
+          <t>-28,54; 26,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 16,15</t>
+          <t>-39,32; 18,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 46,25</t>
+          <t>-13,76; 40,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 44,97</t>
+          <t>-12,2; 44,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 26,39</t>
+          <t>-13,55; 25,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 20,85</t>
+          <t>-19,24; 19,14</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 70,41</t>
+          <t>-37,62; 62,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,54; 37,66</t>
+          <t>-53,29; 36,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 140,84</t>
+          <t>-17,55; 114,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 134,73</t>
+          <t>-16,59; 128,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 60,27</t>
+          <t>-18,39; 57,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 45,62</t>
+          <t>-27,99; 43,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 17,23</t>
+          <t>-25,7; 13,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 13,82</t>
+          <t>-32,62; 13,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 11,83</t>
+          <t>-31,62; 10,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 19,28</t>
+          <t>-22,44; 19,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 7,76</t>
+          <t>-20,91; 7,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 11,21</t>
+          <t>-20,09; 10,71</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 27,78</t>
+          <t>-29,75; 20,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 20,84</t>
+          <t>-37,34; 19,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 18,27</t>
+          <t>-37,58; 16,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 28,95</t>
+          <t>-27,07; 29,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 11,48</t>
+          <t>-25,58; 10,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 16,81</t>
+          <t>-24,09; 15,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-44,3; -2,61</t>
+          <t>-45,08; -1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 11,18</t>
+          <t>-32,06; 11,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 58,34</t>
+          <t>-16,95; 58,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 42,37</t>
+          <t>-38,7; 43,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 13,12</t>
+          <t>-27,0; 12,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 11,93</t>
+          <t>-34,88; 8,5</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -3,99</t>
+          <t>-46,97; -4,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 12,52</t>
+          <t>-33,84; 13,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 361,53</t>
+          <t>-18,74; 337,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,2; 149,18</t>
+          <t>-45,82; 188,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 18,71</t>
+          <t>-29,47; 18,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 17,9</t>
+          <t>-38,01; 11,38</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 34,57</t>
+          <t>-18,58; 35,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 23,23</t>
+          <t>-29,19; 23,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 32,72</t>
+          <t>-12,63; 33,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 37,04</t>
+          <t>-8,76; 39,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 28,56</t>
+          <t>-6,72; 27,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 21,62</t>
+          <t>-13,49; 23,28</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 67,9</t>
+          <t>-24,49; 71,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 47,18</t>
+          <t>-36,75; 47,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 63,57</t>
+          <t>-15,69; 67,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 71,35</t>
+          <t>-11,02; 82,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 50,68</t>
+          <t>-8,41; 48,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 38,65</t>
+          <t>-16,6; 40,99</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 41,65</t>
+          <t>-18,41; 41,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 42,69</t>
+          <t>-24,01; 42,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 37,97</t>
+          <t>-23,92; 40,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 40,03</t>
+          <t>-26,95; 40,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 33,29</t>
+          <t>-14,68; 30,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 32,58</t>
+          <t>-16,07; 32,32</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 103,03</t>
+          <t>-21,44; 110,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 95,97</t>
+          <t>-29,88; 95,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 101,14</t>
+          <t>-32,32; 119,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 108,31</t>
+          <t>-35,85; 124,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 72,48</t>
+          <t>-19,84; 64,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 69,0</t>
+          <t>-20,71; 73,78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 29,74</t>
+          <t>-23,92; 29,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 10,83</t>
+          <t>-54,19; 9,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 37,56</t>
+          <t>-12,26; 40,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 22,06</t>
+          <t>-37,92; 21,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 23,96</t>
+          <t>-12,91; 24,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 8,5</t>
+          <t>-36,02; 7,03</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 62,77</t>
+          <t>-27,05; 61,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,2; 23,63</t>
+          <t>-70,12; 17,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 72,91</t>
+          <t>-13,85; 91,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 40,47</t>
+          <t>-44,94; 37,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 43,1</t>
+          <t>-15,72; 41,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 12,47</t>
+          <t>-45,16; 11,0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 0,96</t>
+          <t>-36,07; -0,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -16,4</t>
+          <t>-52,58; -15,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -0,73</t>
+          <t>-37,51; -1,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-43,53; -7,07</t>
+          <t>-42,91; -9,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -5,59</t>
+          <t>-31,49; -5,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -17,5</t>
+          <t>-42,93; -18,25</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 0,79</t>
+          <t>-41,6; -0,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-60,18; -21,8</t>
+          <t>-61,65; -22,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -1,51</t>
+          <t>-42,17; -2,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-47,36; -9,54</t>
+          <t>-46,93; -12,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,42; -7,61</t>
+          <t>-36,6; -8,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,66; -22,9</t>
+          <t>-48,72; -22,83</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 16,85</t>
+          <t>-21,68; 16,32</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 7,72</t>
+          <t>-26,2; 8,45</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 11,4</t>
+          <t>-21,94; 11,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 4,67</t>
+          <t>-26,93; 5,65</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 9,44</t>
+          <t>-16,95; 8,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 1,58</t>
+          <t>-22,16; 1,14</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 24,87</t>
+          <t>-26,16; 24,04</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 11,06</t>
+          <t>-31,93; 12,98</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 16,81</t>
+          <t>-27,68; 17,76</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 6,72</t>
+          <t>-33,48; 8,56</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 13,82</t>
+          <t>-21,24; 11,2</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 1,59</t>
+          <t>-28,35; 1,61</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,27</t>
+          <t>-13,35; 2,1</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -5,84</t>
+          <t>-23,84; -6,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,23</t>
+          <t>-9,07; 7,1</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,42</t>
+          <t>-15,14; 1,71</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,48</t>
+          <t>-8,93; 1,89</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -4,52</t>
+          <t>-16,66; -5,09</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 2,86</t>
+          <t>-17,31; 2,88</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -8,05</t>
+          <t>-30,02; -9,11</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 10,52</t>
+          <t>-11,87; 10,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 3,34</t>
+          <t>-19,95; 2,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,42</t>
+          <t>-11,52; 2,7</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -6,41</t>
+          <t>-21,49; -7,03</t>
         </is>
       </c>
     </row>
